--- a/src/analysis_examples/circadb/results_lomb/cosinor_10510260_nppb_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10510260_nppb_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.24788626273977854, 0.37024373729716364]</t>
+          <t>[0.25011521121510133, 0.36801478882184085]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>8.108378413140827e-10</v>
+        <v>4.174927070721424e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>8.108378413140827e-10</v>
+        <v>4.174927070721424e-10</v>
       </c>
       <c r="O2" t="n">
         <v>-0.9937370155499243</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.1950002085726936, -0.792473822527155]</t>
+          <t>[-1.1824212590087706, -0.8050527720910781]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.216620804100899e-09</v>
+        <v>3.847970830861414e-10</v>
       </c>
       <c r="R2" t="n">
-        <v>1.216620804100899e-09</v>
+        <v>3.847970830861414e-10</v>
       </c>
       <c r="S2" t="n">
         <v>0.388506019148094</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3567071545194462, 0.42030488377674186]</t>
+          <t>[0.35670486804403434, 0.4203071702521537]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>3.870130130130239</v>
       </c>
       <c r="X2" t="n">
-        <v>3.086306306306393</v>
+        <v>3.135295295295383</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.653953953954084</v>
+        <v>4.604964964965093</v>
       </c>
     </row>
   </sheetData>
